--- a/3 семинар/Домашнее_задание1.xlsx
+++ b/3 семинар/Домашнее_задание1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zerno\OneDrive\Desktop\ЭТ в АД\Урок 3\Семинары\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александра\Documents\Обучение-Разработчик\Специализация - Аналитик\1 четверть\GB4623_A_Basics_of_Excel\3 семинар\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F00B80E-9F26-4591-8261-011A8FF6E0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2208" yWindow="2208" windowWidth="15372" windowHeight="7872"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,14 +127,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -146,6 +231,3161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Данные!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прибыль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Данные!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Данные!$E$6:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2735900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2210271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3004596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2825548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3576132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3128575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3874198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2665368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2833012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2424844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2549544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3150120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E02C-4CB6-92F1-8AFB6103BB62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="921794368"/>
+        <c:axId val="921787712"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Данные!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продавцы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Данные!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Данные!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E02C-4CB6-92F1-8AFB6103BB62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1254267600"/>
+        <c:axId val="1254271760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="921794368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921787712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="921787712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="921794368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1254271760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1254267600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1254267600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1254271760"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Данные!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Прибыль</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Данные!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Данные!$E$6:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2735900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2210271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3004596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2825548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3576132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3128575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3874198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2665368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2833012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2424844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2549544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3150120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B222-41DD-8E9C-CCE3698BF7CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1032209728"/>
+        <c:axId val="1032218048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1032209728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032218048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1032218048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032209728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Данные!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Продавцы</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Данные!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Данные!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-800B-4F74-A41A-5B300E3C4D79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1035667488"/>
+        <c:axId val="1035662496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1035667488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035662496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1035662496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035667488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220981</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136137</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4632961" y="434340"/>
+          <a:ext cx="8449556" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,20 +3650,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C6" sqref="C6:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,139 +3674,247 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2735900</v>
       </c>
+      <c r="F6">
+        <f>IF(E6=MAX($E$6:$E$17),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>IF(E6=MIN($E$6:$E$17),1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2210271</v>
       </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F17" si="0">IF(E7=MAX($E$6:$E$17),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G17" si="1">IF(E7=MIN($E$6:$E$17),1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>3004596</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>2825548</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>3576132</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3128575</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>3874198</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13">
         <v>24</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>2665368</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
         <v>28</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>2833012</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
         <v>23</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>2424844</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>2549544</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>3150120</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C6:E17">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>($E6=MAX($E$6:$E$17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:E7">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>($E7=MIN($E$6:$E$17))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>